--- a/Benchmark/OEQ_Benchmark/color.xlsx
+++ b/Benchmark/OEQ_Benchmark/color.xlsx
@@ -25,220 +25,220 @@
     <t>Reference_Answer</t>
   </si>
   <si>
-    <t>color_0.png</t>
-  </si>
-  <si>
-    <t>color_1.png</t>
-  </si>
-  <si>
-    <t>color_2.png</t>
-  </si>
-  <si>
-    <t>color_3.png</t>
-  </si>
-  <si>
-    <t>color_4.png</t>
-  </si>
-  <si>
-    <t>color_5.png</t>
-  </si>
-  <si>
-    <t>color_6.png</t>
-  </si>
-  <si>
-    <t>color_7.png</t>
-  </si>
-  <si>
-    <t>color_8.png</t>
-  </si>
-  <si>
-    <t>color_9.png</t>
-  </si>
-  <si>
-    <t>color_10.png</t>
-  </si>
-  <si>
-    <t>color_11.png</t>
-  </si>
-  <si>
-    <t>color_12.png</t>
-  </si>
-  <si>
-    <t>color_13.png</t>
-  </si>
-  <si>
-    <t>color_14.png</t>
-  </si>
-  <si>
-    <t>color_15.png</t>
-  </si>
-  <si>
-    <t>color_16.png</t>
-  </si>
-  <si>
-    <t>color_17.png</t>
-  </si>
-  <si>
-    <t>color_18.png</t>
-  </si>
-  <si>
-    <t>color_19.png</t>
-  </si>
-  <si>
-    <t>color_20.png</t>
-  </si>
-  <si>
-    <t>color_21.png</t>
-  </si>
-  <si>
-    <t>color_22.png</t>
-  </si>
-  <si>
-    <t>color_23.png</t>
-  </si>
-  <si>
-    <t>color_24.png</t>
-  </si>
-  <si>
-    <t>color_25.png</t>
-  </si>
-  <si>
-    <t>color_26.png</t>
-  </si>
-  <si>
-    <t>color_27.png</t>
-  </si>
-  <si>
-    <t>color_28.png</t>
-  </si>
-  <si>
-    <t>color_29.png</t>
-  </si>
-  <si>
-    <t>color_30.png</t>
-  </si>
-  <si>
-    <t>color_31.png</t>
-  </si>
-  <si>
-    <t>color_32.png</t>
-  </si>
-  <si>
-    <t>color_33.png</t>
-  </si>
-  <si>
-    <t>color_34.png</t>
-  </si>
-  <si>
-    <t>color_35.png</t>
-  </si>
-  <si>
-    <t>color_36.png</t>
-  </si>
-  <si>
-    <t>color_37.png</t>
-  </si>
-  <si>
-    <t>color_38.png</t>
-  </si>
-  <si>
-    <t>color_39.png</t>
-  </si>
-  <si>
-    <t>color_40.png</t>
-  </si>
-  <si>
-    <t>color_41.png</t>
-  </si>
-  <si>
-    <t>color_42.png</t>
-  </si>
-  <si>
-    <t>color_43.png</t>
-  </si>
-  <si>
-    <t>color_44.png</t>
-  </si>
-  <si>
-    <t>color_45.png</t>
-  </si>
-  <si>
-    <t>color_46.png</t>
-  </si>
-  <si>
-    <t>color_47.png</t>
-  </si>
-  <si>
-    <t>color_48.png</t>
-  </si>
-  <si>
-    <t>color_49.png</t>
-  </si>
-  <si>
-    <t>color_50.png</t>
-  </si>
-  <si>
-    <t>color_51.png</t>
-  </si>
-  <si>
-    <t>color_52.png</t>
-  </si>
-  <si>
-    <t>color_53.png</t>
-  </si>
-  <si>
-    <t>color_54.png</t>
-  </si>
-  <si>
-    <t>color_55.png</t>
-  </si>
-  <si>
-    <t>color_56.png</t>
-  </si>
-  <si>
-    <t>color_57.png</t>
-  </si>
-  <si>
-    <t>color_58.png</t>
-  </si>
-  <si>
-    <t>color_59.png</t>
-  </si>
-  <si>
-    <t>color_60.png</t>
-  </si>
-  <si>
-    <t>color_61.png</t>
-  </si>
-  <si>
-    <t>color_62.png</t>
-  </si>
-  <si>
-    <t>color_63.png</t>
-  </si>
-  <si>
-    <t>color_64.png</t>
-  </si>
-  <si>
-    <t>color_65.png</t>
-  </si>
-  <si>
-    <t>color_66.png</t>
-  </si>
-  <si>
-    <t>color_67.png</t>
-  </si>
-  <si>
-    <t>color_68.png</t>
-  </si>
-  <si>
-    <t>color_69.png</t>
-  </si>
-  <si>
-    <t>color_70.png</t>
-  </si>
-  <si>
-    <t>color_71.png</t>
+    <t>color/color_0.png</t>
+  </si>
+  <si>
+    <t>color/color_1.png</t>
+  </si>
+  <si>
+    <t>color/color_2.png</t>
+  </si>
+  <si>
+    <t>color/color_3.png</t>
+  </si>
+  <si>
+    <t>color/color_4.png</t>
+  </si>
+  <si>
+    <t>color/color_5.png</t>
+  </si>
+  <si>
+    <t>color/color_6.png</t>
+  </si>
+  <si>
+    <t>color/color_7.png</t>
+  </si>
+  <si>
+    <t>color/color_8.png</t>
+  </si>
+  <si>
+    <t>color/color_9.png</t>
+  </si>
+  <si>
+    <t>color/color_10.png</t>
+  </si>
+  <si>
+    <t>color/color_11.png</t>
+  </si>
+  <si>
+    <t>color/color_12.png</t>
+  </si>
+  <si>
+    <t>color/color_13.png</t>
+  </si>
+  <si>
+    <t>color/color_14.png</t>
+  </si>
+  <si>
+    <t>color/color_15.png</t>
+  </si>
+  <si>
+    <t>color/color_16.png</t>
+  </si>
+  <si>
+    <t>color/color_17.png</t>
+  </si>
+  <si>
+    <t>color/color_18.png</t>
+  </si>
+  <si>
+    <t>color/color_19.png</t>
+  </si>
+  <si>
+    <t>color/color_20.png</t>
+  </si>
+  <si>
+    <t>color/color_21.png</t>
+  </si>
+  <si>
+    <t>color/color_22.png</t>
+  </si>
+  <si>
+    <t>color/color_23.png</t>
+  </si>
+  <si>
+    <t>color/color_24.png</t>
+  </si>
+  <si>
+    <t>color/color_25.png</t>
+  </si>
+  <si>
+    <t>color/color_26.png</t>
+  </si>
+  <si>
+    <t>color/color_27.png</t>
+  </si>
+  <si>
+    <t>color/color_28.png</t>
+  </si>
+  <si>
+    <t>color/color_29.png</t>
+  </si>
+  <si>
+    <t>color/color_30.png</t>
+  </si>
+  <si>
+    <t>color/color_31.png</t>
+  </si>
+  <si>
+    <t>color/color_32.png</t>
+  </si>
+  <si>
+    <t>color/color_33.png</t>
+  </si>
+  <si>
+    <t>color/color_34.png</t>
+  </si>
+  <si>
+    <t>color/color_35.png</t>
+  </si>
+  <si>
+    <t>color/color_36.png</t>
+  </si>
+  <si>
+    <t>color/color_37.png</t>
+  </si>
+  <si>
+    <t>color/color_38.png</t>
+  </si>
+  <si>
+    <t>color/color_39.png</t>
+  </si>
+  <si>
+    <t>color/color_40.png</t>
+  </si>
+  <si>
+    <t>color/color_41.png</t>
+  </si>
+  <si>
+    <t>color/color_42.png</t>
+  </si>
+  <si>
+    <t>color/color_43.png</t>
+  </si>
+  <si>
+    <t>color/color_44.png</t>
+  </si>
+  <si>
+    <t>color/color_45.png</t>
+  </si>
+  <si>
+    <t>color/color_46.png</t>
+  </si>
+  <si>
+    <t>color/color_47.png</t>
+  </si>
+  <si>
+    <t>color/color_48.png</t>
+  </si>
+  <si>
+    <t>color/color_49.png</t>
+  </si>
+  <si>
+    <t>color/color_50.png</t>
+  </si>
+  <si>
+    <t>color/color_51.png</t>
+  </si>
+  <si>
+    <t>color/color_52.png</t>
+  </si>
+  <si>
+    <t>color/color_53.png</t>
+  </si>
+  <si>
+    <t>color/color_54.png</t>
+  </si>
+  <si>
+    <t>color/color_55.png</t>
+  </si>
+  <si>
+    <t>color/color_56.png</t>
+  </si>
+  <si>
+    <t>color/color_57.png</t>
+  </si>
+  <si>
+    <t>color/color_58.png</t>
+  </si>
+  <si>
+    <t>color/color_59.png</t>
+  </si>
+  <si>
+    <t>color/color_60.png</t>
+  </si>
+  <si>
+    <t>color/color_61.png</t>
+  </si>
+  <si>
+    <t>color/color_62.png</t>
+  </si>
+  <si>
+    <t>color/color_63.png</t>
+  </si>
+  <si>
+    <t>color/color_64.png</t>
+  </si>
+  <si>
+    <t>color/color_65.png</t>
+  </si>
+  <si>
+    <t>color/color_66.png</t>
+  </si>
+  <si>
+    <t>color/color_67.png</t>
+  </si>
+  <si>
+    <t>color/color_68.png</t>
+  </si>
+  <si>
+    <t>color/color_69.png</t>
+  </si>
+  <si>
+    <t>color/color_70.png</t>
+  </si>
+  <si>
+    <t>color/color_71.png</t>
   </si>
   <si>
     <t>Describe the colors of the onions in the picture.</t>
@@ -298,7 +298,7 @@
     <t>Describe the color of the bird in the picture.</t>
   </si>
   <si>
-    <t>Describe the primary color of the trees in the picture.</t>
+    <t>Describe the main color of the trees in the picture.</t>
   </si>
   <si>
     <t>Describe the color of the bird's wings in the picture.</t>
@@ -721,7 +721,7 @@
     <t>Green</t>
   </si>
   <si>
-    <t>Most of the butterflies in the picture are colored blue and light blue. There is a black and white butterfly in the picture. It is positioned near the center-left side among the flowers.</t>
+    <t>Most of the butterflies in the picture are colored blue, light blue and black. There is a black and white butterfly in the picture. It is positioned near the center-left side among the flowers.</t>
   </si>
   <si>
     <t>Blue, pink and orange(or yellow).</t>

--- a/Benchmark/OEQ_Benchmark/color.xlsx
+++ b/Benchmark/OEQ_Benchmark/color.xlsx
@@ -25,220 +25,220 @@
     <t>Reference_Answer</t>
   </si>
   <si>
-    <t>color/color_0.png</t>
-  </si>
-  <si>
-    <t>color/color_1.png</t>
-  </si>
-  <si>
-    <t>color/color_2.png</t>
-  </si>
-  <si>
-    <t>color/color_3.png</t>
-  </si>
-  <si>
-    <t>color/color_4.png</t>
-  </si>
-  <si>
-    <t>color/color_5.png</t>
-  </si>
-  <si>
-    <t>color/color_6.png</t>
-  </si>
-  <si>
-    <t>color/color_7.png</t>
-  </si>
-  <si>
-    <t>color/color_8.png</t>
-  </si>
-  <si>
-    <t>color/color_9.png</t>
-  </si>
-  <si>
-    <t>color/color_10.png</t>
-  </si>
-  <si>
-    <t>color/color_11.png</t>
-  </si>
-  <si>
-    <t>color/color_12.png</t>
-  </si>
-  <si>
-    <t>color/color_13.png</t>
-  </si>
-  <si>
-    <t>color/color_14.png</t>
-  </si>
-  <si>
-    <t>color/color_15.png</t>
-  </si>
-  <si>
-    <t>color/color_16.png</t>
-  </si>
-  <si>
-    <t>color/color_17.png</t>
-  </si>
-  <si>
-    <t>color/color_18.png</t>
-  </si>
-  <si>
-    <t>color/color_19.png</t>
-  </si>
-  <si>
-    <t>color/color_20.png</t>
-  </si>
-  <si>
-    <t>color/color_21.png</t>
-  </si>
-  <si>
-    <t>color/color_22.png</t>
-  </si>
-  <si>
-    <t>color/color_23.png</t>
-  </si>
-  <si>
-    <t>color/color_24.png</t>
-  </si>
-  <si>
-    <t>color/color_25.png</t>
-  </si>
-  <si>
-    <t>color/color_26.png</t>
-  </si>
-  <si>
-    <t>color/color_27.png</t>
-  </si>
-  <si>
-    <t>color/color_28.png</t>
-  </si>
-  <si>
-    <t>color/color_29.png</t>
-  </si>
-  <si>
-    <t>color/color_30.png</t>
-  </si>
-  <si>
-    <t>color/color_31.png</t>
-  </si>
-  <si>
-    <t>color/color_32.png</t>
-  </si>
-  <si>
-    <t>color/color_33.png</t>
-  </si>
-  <si>
-    <t>color/color_34.png</t>
-  </si>
-  <si>
-    <t>color/color_35.png</t>
-  </si>
-  <si>
-    <t>color/color_36.png</t>
-  </si>
-  <si>
-    <t>color/color_37.png</t>
-  </si>
-  <si>
-    <t>color/color_38.png</t>
-  </si>
-  <si>
-    <t>color/color_39.png</t>
-  </si>
-  <si>
-    <t>color/color_40.png</t>
-  </si>
-  <si>
-    <t>color/color_41.png</t>
-  </si>
-  <si>
-    <t>color/color_42.png</t>
-  </si>
-  <si>
-    <t>color/color_43.png</t>
-  </si>
-  <si>
-    <t>color/color_44.png</t>
-  </si>
-  <si>
-    <t>color/color_45.png</t>
-  </si>
-  <si>
-    <t>color/color_46.png</t>
-  </si>
-  <si>
-    <t>color/color_47.png</t>
-  </si>
-  <si>
-    <t>color/color_48.png</t>
-  </si>
-  <si>
-    <t>color/color_49.png</t>
-  </si>
-  <si>
-    <t>color/color_50.png</t>
-  </si>
-  <si>
-    <t>color/color_51.png</t>
-  </si>
-  <si>
-    <t>color/color_52.png</t>
-  </si>
-  <si>
-    <t>color/color_53.png</t>
-  </si>
-  <si>
-    <t>color/color_54.png</t>
-  </si>
-  <si>
-    <t>color/color_55.png</t>
-  </si>
-  <si>
-    <t>color/color_56.png</t>
-  </si>
-  <si>
-    <t>color/color_57.png</t>
-  </si>
-  <si>
-    <t>color/color_58.png</t>
-  </si>
-  <si>
-    <t>color/color_59.png</t>
-  </si>
-  <si>
-    <t>color/color_60.png</t>
-  </si>
-  <si>
-    <t>color/color_61.png</t>
-  </si>
-  <si>
-    <t>color/color_62.png</t>
-  </si>
-  <si>
-    <t>color/color_63.png</t>
-  </si>
-  <si>
-    <t>color/color_64.png</t>
-  </si>
-  <si>
-    <t>color/color_65.png</t>
-  </si>
-  <si>
-    <t>color/color_66.png</t>
-  </si>
-  <si>
-    <t>color/color_67.png</t>
-  </si>
-  <si>
-    <t>color/color_68.png</t>
-  </si>
-  <si>
-    <t>color/color_69.png</t>
-  </si>
-  <si>
-    <t>color/color_70.png</t>
-  </si>
-  <si>
-    <t>color/color_71.png</t>
+    <t>color_0.png</t>
+  </si>
+  <si>
+    <t>color_1.png</t>
+  </si>
+  <si>
+    <t>color_2.png</t>
+  </si>
+  <si>
+    <t>color_3.png</t>
+  </si>
+  <si>
+    <t>color_4.png</t>
+  </si>
+  <si>
+    <t>color_5.png</t>
+  </si>
+  <si>
+    <t>color_6.png</t>
+  </si>
+  <si>
+    <t>color_7.png</t>
+  </si>
+  <si>
+    <t>color_8.png</t>
+  </si>
+  <si>
+    <t>color_9.png</t>
+  </si>
+  <si>
+    <t>color_10.png</t>
+  </si>
+  <si>
+    <t>color_11.png</t>
+  </si>
+  <si>
+    <t>color_12.png</t>
+  </si>
+  <si>
+    <t>color_13.png</t>
+  </si>
+  <si>
+    <t>color_14.png</t>
+  </si>
+  <si>
+    <t>color_15.png</t>
+  </si>
+  <si>
+    <t>color_16.png</t>
+  </si>
+  <si>
+    <t>color_17.png</t>
+  </si>
+  <si>
+    <t>color_18.png</t>
+  </si>
+  <si>
+    <t>color_19.png</t>
+  </si>
+  <si>
+    <t>color_20.png</t>
+  </si>
+  <si>
+    <t>color_21.png</t>
+  </si>
+  <si>
+    <t>color_22.png</t>
+  </si>
+  <si>
+    <t>color_23.png</t>
+  </si>
+  <si>
+    <t>color_24.png</t>
+  </si>
+  <si>
+    <t>color_25.png</t>
+  </si>
+  <si>
+    <t>color_26.png</t>
+  </si>
+  <si>
+    <t>color_27.png</t>
+  </si>
+  <si>
+    <t>color_28.png</t>
+  </si>
+  <si>
+    <t>color_29.png</t>
+  </si>
+  <si>
+    <t>color_30.png</t>
+  </si>
+  <si>
+    <t>color_31.png</t>
+  </si>
+  <si>
+    <t>color_32.png</t>
+  </si>
+  <si>
+    <t>color_33.png</t>
+  </si>
+  <si>
+    <t>color_34.png</t>
+  </si>
+  <si>
+    <t>color_35.png</t>
+  </si>
+  <si>
+    <t>color_36.png</t>
+  </si>
+  <si>
+    <t>color_37.png</t>
+  </si>
+  <si>
+    <t>color_38.png</t>
+  </si>
+  <si>
+    <t>color_39.png</t>
+  </si>
+  <si>
+    <t>color_40.png</t>
+  </si>
+  <si>
+    <t>color_41.png</t>
+  </si>
+  <si>
+    <t>color_42.png</t>
+  </si>
+  <si>
+    <t>color_43.png</t>
+  </si>
+  <si>
+    <t>color_44.png</t>
+  </si>
+  <si>
+    <t>color_45.png</t>
+  </si>
+  <si>
+    <t>color_46.png</t>
+  </si>
+  <si>
+    <t>color_47.png</t>
+  </si>
+  <si>
+    <t>color_48.png</t>
+  </si>
+  <si>
+    <t>color_49.png</t>
+  </si>
+  <si>
+    <t>color_50.png</t>
+  </si>
+  <si>
+    <t>color_51.png</t>
+  </si>
+  <si>
+    <t>color_52.png</t>
+  </si>
+  <si>
+    <t>color_53.png</t>
+  </si>
+  <si>
+    <t>color_54.png</t>
+  </si>
+  <si>
+    <t>color_55.png</t>
+  </si>
+  <si>
+    <t>color_56.png</t>
+  </si>
+  <si>
+    <t>color_57.png</t>
+  </si>
+  <si>
+    <t>color_58.png</t>
+  </si>
+  <si>
+    <t>color_59.png</t>
+  </si>
+  <si>
+    <t>color_60.png</t>
+  </si>
+  <si>
+    <t>color_61.png</t>
+  </si>
+  <si>
+    <t>color_62.png</t>
+  </si>
+  <si>
+    <t>color_63.png</t>
+  </si>
+  <si>
+    <t>color_64.png</t>
+  </si>
+  <si>
+    <t>color_65.png</t>
+  </si>
+  <si>
+    <t>color_66.png</t>
+  </si>
+  <si>
+    <t>color_67.png</t>
+  </si>
+  <si>
+    <t>color_68.png</t>
+  </si>
+  <si>
+    <t>color_69.png</t>
+  </si>
+  <si>
+    <t>color_70.png</t>
+  </si>
+  <si>
+    <t>color_71.png</t>
   </si>
   <si>
     <t>Describe the colors of the onions in the picture.</t>
